--- a/Optimisation1.xlsx
+++ b/Optimisation1.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/cmtmd_leeds_ac_uk/Documents/PhD project infomation/Data/Code/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/cmtmd_leeds_ac_uk/Documents/Research PhD project infomation/Written documents/Papers/Autonomous HPLC method development using optimisation algorithms/paper code/Python code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{86D4FA3C-00D2-4AA5-B4D2-AE17C2EA3E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2AF509A-D5B4-4038-ABCD-348CF24FF4EE}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{86D4FA3C-00D2-4AA5-B4D2-AE17C2EA3E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3279CAB8-0D3B-405B-8A27-28FAE4641521}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="2532" windowWidth="17280" windowHeight="9018" activeTab="1" xr2:uid="{BC98649E-3468-4EB7-B43E-0AF95D101F1B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC98649E-3468-4EB7-B43E-0AF95D101F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>GradTime</t>
   </si>
@@ -80,9 +79,6 @@
   </si>
   <si>
     <t>WeightRespcmtmdHPLC018</t>
-  </si>
-  <si>
-    <t>Experiment</t>
   </si>
 </sst>
 </file>
@@ -139,9 +135,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +175,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,13 +433,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B791466B-3B14-4CEC-B5FC-7492F590F76D}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection sqref="A1:O41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.2300000000000004</v>
       </c>
@@ -537,7 +533,7 @@
         <v>0.19875305629446199</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.85</v>
       </c>
@@ -584,7 +580,7 @@
         <v>2.9711224038202401E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8.84</v>
       </c>
@@ -631,7 +627,7 @@
         <v>0.183187125849361</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.95</v>
       </c>
@@ -678,7 +674,7 @@
         <v>0.19478870358006201</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -725,7 +721,7 @@
         <v>0.15069920824144001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.57</v>
       </c>
@@ -772,7 +768,7 @@
         <v>0.18726949187972899</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.2100000000000009</v>
       </c>
@@ -819,7 +815,7 @@
         <v>0.14720983538451299</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9.9990073517165197</v>
       </c>
@@ -866,7 +862,7 @@
         <v>7.1927141952752599E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.00007043564434</v>
       </c>
@@ -913,7 +909,7 @@
         <v>5.9178320204539898E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9.9999956996067301</v>
       </c>
@@ -960,7 +956,7 @@
         <v>3.4625893343568401E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.30154659149663</v>
       </c>
@@ -1007,7 +1003,7 @@
         <v>0.20839750619937999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.00708034683112</v>
       </c>
@@ -1054,7 +1050,7 @@
         <v>1.9506238299891902E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.00006486950198</v>
       </c>
@@ -1101,7 +1097,7 @@
         <v>9.9649800870436303E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.0000086171160201</v>
       </c>
@@ -1148,7 +1144,7 @@
         <v>0.12488273994558401</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.6164778311638801</v>
       </c>
@@ -1195,7 +1191,7 @@
         <v>5.3434734120957603E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4.1647137888947601</v>
       </c>
@@ -1242,7 +1238,7 @@
         <v>5.5211482471966597E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.63965684361506</v>
       </c>
@@ -1289,7 +1285,7 @@
         <v>2.8182636676562199E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.70454009682167</v>
       </c>
@@ -1336,7 +1332,7 @@
         <v>3.3702550051503299E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.59667429162234</v>
       </c>
@@ -1383,7 +1379,7 @@
         <v>4.0869226168310603E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9.9915849141516606</v>
       </c>
@@ -1430,7 +1426,7 @@
         <v>9.49906025523089E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.3663599879788002</v>
       </c>
@@ -1477,7 +1473,7 @@
         <v>0.20734229194048001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.6508492877529202</v>
       </c>
@@ -1524,7 +1520,7 @@
         <v>3.04645390966569E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.2657135429342903</v>
       </c>
@@ -1571,7 +1567,7 @@
         <v>4.5078638075540002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.3186337603730398</v>
       </c>
@@ -1618,7 +1614,7 @@
         <v>0.24430124580286799</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.4839978632398196</v>
       </c>
@@ -1665,7 +1661,7 @@
         <v>0.115309490158692</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5.0891475761177398</v>
       </c>
@@ -1712,7 +1708,7 @@
         <v>3.1999932179267603E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.0004373532208</v>
       </c>
@@ -1759,7 +1755,7 @@
         <v>1.9384872275077299E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1.00013915275124</v>
       </c>
@@ -1806,7 +1802,7 @@
         <v>0.133669759972462</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1.0000031893680901</v>
       </c>
@@ -1853,7 +1849,7 @@
         <v>4.6174913290969198E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9.9999556165684798</v>
       </c>
@@ -1900,7 +1896,7 @@
         <v>3.7149801993861101E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1.00000009099881</v>
       </c>
@@ -1947,7 +1943,7 @@
         <v>4.6199691033880698E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9.9570094365036308</v>
       </c>
@@ -1994,7 +1990,7 @@
         <v>0.14396937043907199</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1.01169982953848</v>
       </c>
@@ -2041,7 +2037,7 @@
         <v>1.78069820625926E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1.00095331974783</v>
       </c>
@@ -2088,7 +2084,7 @@
         <v>0.11117065451819499</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1.00001035521688</v>
       </c>
@@ -2135,7 +2131,7 @@
         <v>8.1377034574542095E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.00560416886131</v>
       </c>
@@ -2182,7 +2178,7 @@
         <v>3.9452316613818497E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9.9991050824802397</v>
       </c>
@@ -2229,7 +2225,7 @@
         <v>6.1974064115647702E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.0057706757339</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>4.06465347152681E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9.3743549956004308</v>
       </c>
@@ -2323,7 +2319,7 @@
         <v>0.20812428800444699</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1.1807586905172101</v>
       </c>
@@ -2367,1087 +2363,6 @@
         <v>0.169144136093383</v>
       </c>
       <c r="O41">
-        <v>2.01766721677431E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E53B49-5D15-49EC-9E9C-F1BC3459271C}">
-  <dimension ref="A1:H41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="C2">
-        <v>58.1</v>
-      </c>
-      <c r="D2">
-        <v>2.77</v>
-      </c>
-      <c r="E2">
-        <v>0.65159180883661405</v>
-      </c>
-      <c r="F2">
-        <v>-6</v>
-      </c>
-      <c r="G2">
-        <v>3.3659998360305998</v>
-      </c>
-      <c r="H2">
-        <v>0.19875305629446199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1.85</v>
-      </c>
-      <c r="C3">
-        <v>33.25</v>
-      </c>
-      <c r="D3">
-        <v>3.95</v>
-      </c>
-      <c r="E3">
-        <v>-0.259865838506602</v>
-      </c>
-      <c r="F3">
-        <v>-7</v>
-      </c>
-      <c r="G3">
-        <v>6.5364692884045201</v>
-      </c>
-      <c r="H3">
-        <v>2.9711224038202401E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>8.84</v>
-      </c>
-      <c r="C4">
-        <v>51.39</v>
-      </c>
-      <c r="D4">
-        <v>5.21</v>
-      </c>
-      <c r="E4">
-        <v>0.47914645103529901</v>
-      </c>
-      <c r="F4">
-        <v>-6</v>
-      </c>
-      <c r="G4">
-        <v>5.6321919455517904</v>
-      </c>
-      <c r="H4">
-        <v>0.183187125849361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>6.95</v>
-      </c>
-      <c r="C5">
-        <v>43.25</v>
-      </c>
-      <c r="D5">
-        <v>0.26</v>
-      </c>
-      <c r="E5">
-        <v>1.16226469427825</v>
-      </c>
-      <c r="F5">
-        <v>-7</v>
-      </c>
-      <c r="G5">
-        <v>4.4987798764314304</v>
-      </c>
-      <c r="H5">
-        <v>0.19478870358006201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>5.46</v>
-      </c>
-      <c r="D6">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="E6">
-        <v>-4.8454553038023498</v>
-      </c>
-      <c r="F6">
-        <v>-6</v>
-      </c>
-      <c r="G6">
-        <v>14.296682955973999</v>
-      </c>
-      <c r="H6">
-        <v>0.15069920824144001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2.57</v>
-      </c>
-      <c r="C7">
-        <v>21.06</v>
-      </c>
-      <c r="D7">
-        <v>9.94</v>
-      </c>
-      <c r="E7">
-        <v>0.84955003563127995</v>
-      </c>
-      <c r="F7">
-        <v>-7</v>
-      </c>
-      <c r="G7">
-        <v>13.164137037708199</v>
-      </c>
-      <c r="H7">
-        <v>0.18726949187972899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="C8">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="D8">
-        <v>6.9</v>
-      </c>
-      <c r="E8">
-        <v>-5.8906913488985504</v>
-      </c>
-      <c r="F8">
-        <v>-6</v>
-      </c>
-      <c r="G8">
-        <v>13.5290209274501</v>
-      </c>
-      <c r="H8">
-        <v>0.14720983538451299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>9.9990073517165197</v>
-      </c>
-      <c r="C9">
-        <v>31.594796579192501</v>
-      </c>
-      <c r="D9">
-        <v>9.9990143598635299</v>
-      </c>
-      <c r="E9">
-        <v>-0.25175638659288901</v>
-      </c>
-      <c r="F9">
-        <v>-7</v>
-      </c>
-      <c r="G9">
-        <v>15.823971229605601</v>
-      </c>
-      <c r="H9">
-        <v>7.1927141952752599E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1.00007043564434</v>
-      </c>
-      <c r="C10">
-        <v>34.496075114984897</v>
-      </c>
-      <c r="D10">
-        <v>9.7367683677070502</v>
-      </c>
-      <c r="E10">
-        <v>4.11735555025039E-2</v>
-      </c>
-      <c r="F10">
-        <v>-7</v>
-      </c>
-      <c r="G10">
-        <v>11.6605031134161</v>
-      </c>
-      <c r="H10">
-        <v>5.9178320204539898E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>9.9999956996067301</v>
-      </c>
-      <c r="C11">
-        <v>33.338967330966099</v>
-      </c>
-      <c r="D11">
-        <v>1.5532755426736999</v>
-      </c>
-      <c r="E11">
-        <v>-0.239606718486746</v>
-      </c>
-      <c r="F11">
-        <v>-7</v>
-      </c>
-      <c r="G11">
-        <v>7.6176965355850603</v>
-      </c>
-      <c r="H11">
-        <v>3.4625893343568401E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1.30154659149663</v>
-      </c>
-      <c r="C12">
-        <v>11.031977535566201</v>
-      </c>
-      <c r="D12">
-        <v>0.19607911662668001</v>
-      </c>
-      <c r="E12">
-        <v>1.31021912530134</v>
-      </c>
-      <c r="F12">
-        <v>-7</v>
-      </c>
-      <c r="G12">
-        <v>2.6102202289193599</v>
-      </c>
-      <c r="H12">
-        <v>0.20839750619937999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1.00708034683112</v>
-      </c>
-      <c r="C13">
-        <v>32.832968580790101</v>
-      </c>
-      <c r="D13">
-        <v>2.2369200793753001</v>
-      </c>
-      <c r="E13">
-        <v>-0.27703106774214697</v>
-      </c>
-      <c r="F13">
-        <v>-7</v>
-      </c>
-      <c r="G13">
-        <v>4.2913724259762196</v>
-      </c>
-      <c r="H13">
-        <v>1.9506238299891902E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1.00006486950198</v>
-      </c>
-      <c r="C14">
-        <v>36.614804228619199</v>
-      </c>
-      <c r="D14">
-        <v>8.4936606002429897</v>
-      </c>
-      <c r="E14">
-        <v>0.34960816557102498</v>
-      </c>
-      <c r="F14">
-        <v>-7</v>
-      </c>
-      <c r="G14">
-        <v>10.385886727652199</v>
-      </c>
-      <c r="H14">
-        <v>9.9649800870436303E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1.0000086171160201</v>
-      </c>
-      <c r="C15">
-        <v>32.267315711511998</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5.25892825636429E-6</v>
-      </c>
-      <c r="E15">
-        <v>0.76959164498632104</v>
-      </c>
-      <c r="F15">
-        <v>-7</v>
-      </c>
-      <c r="G15">
-        <v>2.0776785034798202</v>
-      </c>
-      <c r="H15">
-        <v>0.12488273994558401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2.6164778311638801</v>
-      </c>
-      <c r="C16">
-        <v>33.741911931757102</v>
-      </c>
-      <c r="D16" s="1">
-        <v>8.8395518390088306</v>
-      </c>
-      <c r="E16">
-        <v>-0.17873017683621401</v>
-      </c>
-      <c r="F16">
-        <v>-7</v>
-      </c>
-      <c r="G16">
-        <v>11.755641506610701</v>
-      </c>
-      <c r="H16">
-        <v>5.3434734120957603E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4.1647137888947601</v>
-      </c>
-      <c r="C17">
-        <v>33.731167070277401</v>
-      </c>
-      <c r="D17">
-        <v>8.50917560078177</v>
-      </c>
-      <c r="E17">
-        <v>-0.16479698372510801</v>
-      </c>
-      <c r="F17">
-        <v>-7</v>
-      </c>
-      <c r="G17">
-        <v>12.1465261438327</v>
-      </c>
-      <c r="H17">
-        <v>5.5211482471966597E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1.63965684361506</v>
-      </c>
-      <c r="C18">
-        <v>34.668393812358602</v>
-      </c>
-      <c r="D18">
-        <v>2.7635909072732701</v>
-      </c>
-      <c r="E18">
-        <v>3.0201185817300101E-2</v>
-      </c>
-      <c r="F18">
-        <v>-7</v>
-      </c>
-      <c r="G18">
-        <v>5.2035409368727796</v>
-      </c>
-      <c r="H18">
-        <v>2.8182636676562199E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2.70454009682167</v>
-      </c>
-      <c r="C19">
-        <v>29.790099990447501</v>
-      </c>
-      <c r="D19">
-        <v>4.2495200761144698</v>
-      </c>
-      <c r="E19">
-        <v>-0.19224409012038901</v>
-      </c>
-      <c r="F19">
-        <v>-7</v>
-      </c>
-      <c r="G19">
-        <v>7.4145610113307203</v>
-      </c>
-      <c r="H19">
-        <v>3.3702550051503299E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.59667429162234</v>
-      </c>
-      <c r="C20">
-        <v>29.552222570843799</v>
-      </c>
-      <c r="D20">
-        <v>6.5368169929595998</v>
-      </c>
-      <c r="E20">
-        <v>-0.18275646135697901</v>
-      </c>
-      <c r="F20">
-        <v>-7</v>
-      </c>
-      <c r="G20">
-        <v>8.9912297570283197</v>
-      </c>
-      <c r="H20">
-        <v>4.0869226168310603E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>9.9915849141516606</v>
-      </c>
-      <c r="C21">
-        <v>24.560078818892499</v>
-      </c>
-      <c r="D21">
-        <v>4.3705382653416098</v>
-      </c>
-      <c r="E21">
-        <v>0.29197413660534399</v>
-      </c>
-      <c r="F21">
-        <v>-7</v>
-      </c>
-      <c r="G21">
-        <v>11.262786053531601</v>
-      </c>
-      <c r="H21">
-        <v>9.49906025523089E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>6.3663599879788002</v>
-      </c>
-      <c r="C22">
-        <v>59.997544559834097</v>
-      </c>
-      <c r="D22">
-        <v>9.9993469280752798</v>
-      </c>
-      <c r="E22">
-        <v>0.71994187715209002</v>
-      </c>
-      <c r="F22">
-        <v>-6</v>
-      </c>
-      <c r="G22">
-        <v>3.0000794237437902</v>
-      </c>
-      <c r="H22">
-        <v>0.20734229194048001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>3.6508492877529202</v>
-      </c>
-      <c r="C23">
-        <v>31.409782342886</v>
-      </c>
-      <c r="D23">
-        <v>3.0459854998832201</v>
-      </c>
-      <c r="E23">
-        <v>-0.24993147568747801</v>
-      </c>
-      <c r="F23">
-        <v>-7</v>
-      </c>
-      <c r="G23">
-        <v>6.7021986012645201</v>
-      </c>
-      <c r="H23">
-        <v>3.04645390966569E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>5.2657135429342903</v>
-      </c>
-      <c r="C24">
-        <v>31.600447703004001</v>
-      </c>
-      <c r="D24">
-        <v>5.5774558492560198</v>
-      </c>
-      <c r="E24">
-        <v>-0.24783502098551599</v>
-      </c>
-      <c r="F24">
-        <v>-7</v>
-      </c>
-      <c r="G24">
-        <v>9.9173003766187904</v>
-      </c>
-      <c r="H24">
-        <v>4.5078638075540002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>2.3186337603730398</v>
-      </c>
-      <c r="C25">
-        <v>45.487639499978499</v>
-      </c>
-      <c r="D25">
-        <v>9.9999715272332406</v>
-      </c>
-      <c r="E25">
-        <v>1.3376355771174899</v>
-      </c>
-      <c r="F25">
-        <v>-7</v>
-      </c>
-      <c r="G25">
-        <v>9.6043000317538691</v>
-      </c>
-      <c r="H25">
-        <v>0.24430124580286799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>5.4839978632398196</v>
-      </c>
-      <c r="C26">
-        <v>21.381563442267399</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4.2115517966504898E-10</v>
-      </c>
-      <c r="E26">
-        <v>0.61770824098859101</v>
-      </c>
-      <c r="F26">
-        <v>-7</v>
-      </c>
-      <c r="G26">
-        <v>4.9837158822886698</v>
-      </c>
-      <c r="H26">
-        <v>0.115309490158692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>5.0891475761177398</v>
-      </c>
-      <c r="C27">
-        <v>33.294861903488098</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2.8046074062014399</v>
-      </c>
-      <c r="E27">
-        <v>-0.26654329300250701</v>
-      </c>
-      <c r="F27">
-        <v>-7</v>
-      </c>
-      <c r="G27">
-        <v>7.0399850794388596</v>
-      </c>
-      <c r="H27">
-        <v>3.1999932179267603E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1.0004373532208</v>
-      </c>
-      <c r="C28">
-        <v>29.1517006096404</v>
-      </c>
-      <c r="D28">
-        <v>2.1810782729871598</v>
-      </c>
-      <c r="E28">
-        <v>-0.115809168091711</v>
-      </c>
-      <c r="F28">
-        <v>-7</v>
-      </c>
-      <c r="G28">
-        <v>4.2646719005170102</v>
-      </c>
-      <c r="H28">
-        <v>1.9384872275077299E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1.00013915275124</v>
-      </c>
-      <c r="C29">
-        <v>39.079581571597899</v>
-      </c>
-      <c r="D29">
-        <v>4.0596163103896998</v>
-      </c>
-      <c r="E29">
-        <v>0.70951820475157301</v>
-      </c>
-      <c r="F29">
-        <v>-7</v>
-      </c>
-      <c r="G29">
-        <v>5.9932464371396597</v>
-      </c>
-      <c r="H29">
-        <v>0.133669759972462</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1.0000031893680901</v>
-      </c>
-      <c r="C30">
-        <v>25.762865784857901</v>
-      </c>
-      <c r="D30">
-        <v>2.1389683655553799</v>
-      </c>
-      <c r="E30">
-        <v>0.179000294127168</v>
-      </c>
-      <c r="F30">
-        <v>-7</v>
-      </c>
-      <c r="G30">
-        <v>4.2514712178166896</v>
-      </c>
-      <c r="H30">
-        <v>4.6174913290969198E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>9.9999556165684798</v>
-      </c>
-      <c r="C31">
-        <v>28.837455080116701</v>
-      </c>
-      <c r="D31">
-        <v>1.62261532406235</v>
-      </c>
-      <c r="E31">
-        <v>-8.4865494468290503E-2</v>
-      </c>
-      <c r="F31">
-        <v>-7</v>
-      </c>
-      <c r="G31">
-        <v>8.1729564386494395</v>
-      </c>
-      <c r="H31">
-        <v>3.7149801993861101E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1.00000009099881</v>
-      </c>
-      <c r="C32">
-        <v>29.282365435595999</v>
-      </c>
-      <c r="D32">
-        <v>8.12006332049123</v>
-      </c>
-      <c r="E32">
-        <v>-0.13179851878149401</v>
-      </c>
-      <c r="F32">
-        <v>-7</v>
-      </c>
-      <c r="G32">
-        <v>10.163932027453701</v>
-      </c>
-      <c r="H32">
-        <v>4.6199691033880698E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>9.9570094365036308</v>
-      </c>
-      <c r="C33">
-        <v>5.0004573402226997</v>
-      </c>
-      <c r="D33">
-        <v>4.6696351435411296</v>
-      </c>
-      <c r="E33">
-        <v>-6.2965461515497703</v>
-      </c>
-      <c r="F33">
-        <v>-6</v>
-      </c>
-      <c r="G33">
-        <v>12.816118639452901</v>
-      </c>
-      <c r="H33">
-        <v>0.14396937043907199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1.01169982953848</v>
-      </c>
-      <c r="C34">
-        <v>31.082853415424999</v>
-      </c>
-      <c r="D34">
-        <v>1.83749825156116</v>
-      </c>
-      <c r="E34">
-        <v>-0.21073087957015599</v>
-      </c>
-      <c r="F34">
-        <v>-7</v>
-      </c>
-      <c r="G34">
-        <v>3.9175360537703701</v>
-      </c>
-      <c r="H34">
-        <v>1.78069820625926E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1.00095331974783</v>
-      </c>
-      <c r="C35">
-        <v>16.171800848687301</v>
-      </c>
-      <c r="D35">
-        <v>3.4311108658834701</v>
-      </c>
-      <c r="E35">
-        <v>-0.124051614454995</v>
-      </c>
-      <c r="F35">
-        <v>-6</v>
-      </c>
-      <c r="G35">
-        <v>5.6004011368599702</v>
-      </c>
-      <c r="H35">
-        <v>0.11117065451819499</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>1.00001035521688</v>
-      </c>
-      <c r="C36">
-        <v>25.1916431728561</v>
-      </c>
-      <c r="D36">
-        <v>6.8553697676235803</v>
-      </c>
-      <c r="E36">
-        <v>0.27105726495867</v>
-      </c>
-      <c r="F36">
-        <v>-7</v>
-      </c>
-      <c r="G36">
-        <v>8.9580578627631393</v>
-      </c>
-      <c r="H36">
-        <v>8.1377034574542095E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>1.00560416886131</v>
-      </c>
-      <c r="C37">
-        <v>35.376965737688998</v>
-      </c>
-      <c r="D37">
-        <v>1.8185237105585601</v>
-      </c>
-      <c r="E37">
-        <v>0.14636001747994801</v>
-      </c>
-      <c r="F37">
-        <v>-7</v>
-      </c>
-      <c r="G37">
-        <v>3.8496290782017701</v>
-      </c>
-      <c r="H37">
-        <v>3.9452316613818497E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>9.9991050824802397</v>
-      </c>
-      <c r="C38">
-        <v>29.821605218121501</v>
-      </c>
-      <c r="D38">
-        <v>7.3622389159846602</v>
-      </c>
-      <c r="E38">
-        <v>-0.15190559514972299</v>
-      </c>
-      <c r="F38">
-        <v>-7</v>
-      </c>
-      <c r="G38">
-        <v>13.6342941054425</v>
-      </c>
-      <c r="H38">
-        <v>6.1974064115647702E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1.0057706757339</v>
-      </c>
-      <c r="C39">
-        <v>32.5378018158003</v>
-      </c>
-      <c r="D39">
-        <v>6.9332803334572004</v>
-      </c>
-      <c r="E39">
-        <v>-0.22933175350433899</v>
-      </c>
-      <c r="F39">
-        <v>-7</v>
-      </c>
-      <c r="G39">
-        <v>8.9422376373589803</v>
-      </c>
-      <c r="H39">
-        <v>4.06465347152681E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>9.3743549956004308</v>
-      </c>
-      <c r="C40">
-        <v>59.994636035499397</v>
-      </c>
-      <c r="D40">
-        <v>3.3488762699711599E-2</v>
-      </c>
-      <c r="E40">
-        <v>0.73726728637398897</v>
-      </c>
-      <c r="F40">
-        <v>-6</v>
-      </c>
-      <c r="G40">
-        <v>2.6003800534939301</v>
-      </c>
-      <c r="H40">
-        <v>0.20812428800444699</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>1.1807586905172101</v>
-      </c>
-      <c r="C41">
-        <v>31.1819411244558</v>
-      </c>
-      <c r="D41">
-        <v>2.2540520685149898</v>
-      </c>
-      <c r="E41">
-        <v>-0.20688866914130699</v>
-      </c>
-      <c r="F41">
-        <v>-7</v>
-      </c>
-      <c r="G41">
-        <v>4.4388678769034904</v>
-      </c>
-      <c r="H41">
         <v>2.01766721677431E-2</v>
       </c>
     </row>
